--- a/outputs.xlsx
+++ b/outputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ladichva\PycharmProjects\magna_add_ntb_auto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ladichva\PycharmProjects\magna_add_mobile_auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A514DF5-E644-41A8-80E8-ADFF60C0EEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAD9A4E-FEF6-4343-843C-FD4DF5A22923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-15390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
